--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 4/CENTRAL 05 MAYO 2024/PAGOS  VECTOR CASA ODELPA  MAYO--2024.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 4/CENTRAL 05 MAYO 2024/PAGOS  VECTOR CASA ODELPA  MAYO--2024.xlsx
@@ -9,14 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24120" windowHeight="10785" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24120" windowHeight="10785" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="5" r:id="rId1"/>
     <sheet name="VECTOR -Masari  SAM FARMS  CIC " sheetId="1" r:id="rId2"/>
     <sheet name="VECTOR  IDEL TRADING   ODELPA  " sheetId="2" r:id="rId3"/>
     <sheet name="SEABOARD    Odelpa  2023--2024" sheetId="3" r:id="rId4"/>
-    <sheet name="Hoja4" sheetId="4" r:id="rId5"/>
+    <sheet name="MASARI  FR LIVESTOCK AND TRADIN" sheetId="4" r:id="rId5"/>
+    <sheet name="Hoja2" sheetId="6" r:id="rId6"/>
+    <sheet name="Hoja3" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="75">
   <si>
     <t xml:space="preserve">C O N C E P TO </t>
   </si>
@@ -247,6 +249,12 @@
   </si>
   <si>
     <t>CICSE24-18</t>
+  </si>
+  <si>
+    <t>Compra de  39,781.77   usd tc    16.897    Y PAGO A  IDEAL TRADING    12365/*12--------    FACTURA   12     VALOR FACTURA    39,781.77      usd</t>
+  </si>
+  <si>
+    <t>PAGOS  CON MASARI  A   FR LIVESTOCK AND TRADING</t>
   </si>
 </sst>
 </file>
@@ -395,7 +403,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -447,6 +455,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF66FFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,7 +558,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -747,6 +761,24 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -757,6 +789,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCFFFF"/>
+      <color rgb="FF99CCFF"/>
       <color rgb="FF0000FF"/>
       <color rgb="FF66FFCC"/>
       <color rgb="FF00FFFF"/>
@@ -1053,7 +1087,7 @@
   </sheetPr>
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
@@ -2082,7 +2116,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2501,7 +2535,7 @@
   </sheetPr>
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -3586,6 +3620,436 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFCCFFFF"/>
+  </sheetPr>
+  <dimension ref="A1:L24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="10" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="95" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="96"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="21">
+        <f t="shared" ref="I4:I24" si="0">H4-G4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="22">
+        <f t="shared" ref="J4:J24" si="1">J3+I4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B5" s="100" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="44">
+        <v>12365</v>
+      </c>
+      <c r="E5" s="19">
+        <v>672195.57</v>
+      </c>
+      <c r="F5" s="41">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5">
+        <v>39781.769999999997</v>
+      </c>
+      <c r="H5" s="5">
+        <v>39781.769999999997</v>
+      </c>
+      <c r="I5" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="99"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="99"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="99"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="99"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="99"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="99"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="99"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="99"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="25"/>
+    </row>
+    <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+    </row>
+    <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F18" s="40"/>
+      <c r="I18" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I22" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I23" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I24" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
